--- a/work/changelog.xlsx
+++ b/work/changelog.xlsx
@@ -1,53 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Changelog" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Changelog'!$A$1:$E$1</definedName>
-  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>0.0.2</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>0.1.1</t>
+  </si>
+  <si>
+    <t>0.1.2</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>Initial spec drafted for Employee Training Management System</t>
+  </si>
+  <si>
+    <t>Updated spec: added training categories, onboarding checklist tables, seed data from spreadsheet, real employee roles</t>
+  </si>
+  <si>
+    <t>Single deployment: .NET serves React as static files, removed CORS, relative API URLs</t>
+  </si>
+  <si>
+    <t>Supervision Matrix: Calendar heatmap with exceptions, requirements, and employee profile tab</t>
+  </si>
+  <si>
+    <t>Company Settings &amp; Training Warning Days: Separate expiry warning (UI amber status) from notification timing (email). New company_settings table for defaults.</t>
+  </si>
+  <si>
+    <t>DataGrid Migration: Training Matrix and Supervision Matrix pages now use the new DataGrid component with color-only cells, responsive columns, and improved filtering.</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="12"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002F5496"/>
-        <bgColor rgb="002F5496"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -55,106 +118,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -442,137 +419,133 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Version</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Author</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>0.0.0</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>Spec</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Initial spec drafted for Employee Training Management System</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>Claude</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>0.0.1</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Spec</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Updated spec: added training categories, onboarding checklist tables, seed data from spreadsheet, real employee roles</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Claude</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>0.0.2</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Spec</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Single deployment: .NET serves React as static files, removed CORS, relative API URLs</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>Claude</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>46058</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/work/changelog.xlsx
+++ b/work/changelog.xlsx
@@ -1,110 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>2026-02-03</t>
-  </si>
-  <si>
-    <t>2026-02-05</t>
-  </si>
-  <si>
-    <t>0.0.0</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>0.0.2</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>0.1.1</t>
-  </si>
-  <si>
-    <t>0.1.2</t>
-  </si>
-  <si>
-    <t>Spec</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Enhancement</t>
-  </si>
-  <si>
-    <t>Initial spec drafted for Employee Training Management System</t>
-  </si>
-  <si>
-    <t>Updated spec: added training categories, onboarding checklist tables, seed data from spreadsheet, real employee roles</t>
-  </si>
-  <si>
-    <t>Single deployment: .NET serves React as static files, removed CORS, relative API URLs</t>
-  </si>
-  <si>
-    <t>Supervision Matrix: Calendar heatmap with exceptions, requirements, and employee profile tab</t>
-  </si>
-  <si>
-    <t>Company Settings &amp; Training Warning Days: Separate expiry warning (UI amber status) from notification timing (email). New company_settings table for defaults.</t>
-  </si>
-  <si>
-    <t>DataGrid Migration: Training Matrix and Supervision Matrix pages now use the new DataGrid component with color-only cells, responsive columns, and improved filtering.</t>
-  </si>
-  <si>
-    <t>Claude</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,16 +49,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -419,130 +414,477 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.0.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Spec</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Initial spec drafted for Employee Training Management System</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.0.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Spec</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Updated spec: added training categories, onboarding checklist tables, seed data from spreadsheet, real employee roles</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.0.2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Spec</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Single deployment: .NET serves React as static files, removed CORS, relative API URLs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Supervision Matrix: Calendar heatmap with exceptions, requirements, and employee profile tab</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>46058</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.1.1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Company Settings &amp; Training Warning Days: Separate expiry warning (UI amber status) from notification timing (email). New company_settings table for defaults.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>46058</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.1.2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DataGrid Migration: Training Matrix and Supervision Matrix pages now use the new DataGrid component with color-only cells, responsive columns, and improved filtering.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>46058</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.2.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rota scheduling: monthly shift grid, 7 shift types, click-to-edit, contracted hours tracking, colour-coded legend, leave overlay</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>46058</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.2.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Annual leave: request/approve/reject workflow, balance tracking, entitlement management, rota integration</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>46058</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.3.0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Role-based permissions: 34 granular permission keys with per-permission scoping, roles + users management pages</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>46058</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.3.1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Appraisals: milestone matrix grid, employee profile tab, auto-generated due dates from start date</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.4.0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sidebar restructure: 3 sections (Home/Management/Administration), 5 personal self-service pages (Dashboard, My Training, My Rota, My Leave, My Reviews)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.4.1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fix</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fixed training_matrix.edit permission key (did not exist) to training_records.record</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.4.2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fix</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fixed employee status not saving: explicit NpgsqlParameter typing for UUID fields, fixed edit modal form not resetting between opens</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.5.0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Permission simplification: removed scopes (own/reports/all), permissions now on/off only. Self-service added for users with linked employee records.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.5.1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Roles page redesign: tabbed Access/Edit checkboxes (5 tabs), permission count badges, Grant All/Revoke All, fixed-height dialog.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.5.2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sidebar restructure: removed My Reviews page, added self-service pages (My Training, My Rota, My Leave, Dashboard).</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.5.3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fix</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Roles dialog: added left/right chevron scroll buttons with gradient fade for narrow screens where permission tabs overflow.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/work/changelog.xlsx
+++ b/work/changelog.xlsx
@@ -15,10 +15,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -49,11 +50,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,6 +889,56 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.5.4</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ListPage component with built-in search and FilterBar toolbar. Standardised filtering across all pages using FilterBar (replaces standalone Select dropdowns). Migrated training courses page. Documented UI layout conventions (work/ui-layout/).</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.5.5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DataTable component for tabular records (flat or expandable rows). Merged notifications into audit log page as tab. Migrated all list pages to ListPage+ListRow+FilterBar: employees, users, my-training, leave, onboarding items, employee statuses. Updated employee-leave-tab to use ListRow.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/changelog.xlsx
+++ b/work/changelog.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,6 +939,106 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.5.6</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Appraisals rework: replaced matrix view with DataGrid-based grid showing appraisal status by year. Added modal for scheduling, completing, and editing appraisals with notes and outcome fields.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.5.7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Enhancement</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Migrated roles page to ListPage+ListRow. Added search to roles, onboarding items, and employee statuses. Fixed DataTable header text inconsistency. Fixed settings page tab padding and consolidated Save buttons with SaveBar component.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.5.8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GroupBy component for dynamic list grouping. Added to My Training page with Category/Status options. CollapsibleSection now supports controlled mode. ListPage has expand/collapse all toggle icon.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.5.9</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fix</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Training status endpoint self-service fallback: users without training_matrix.view permission can now see their own training status. Fixed My Training RecordTrainingModal not rendering when groups active.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/changelog.xlsx
+++ b/work/changelog.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1039,56 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>46061</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.6.0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dashboard enhancement: expanded company dashboard (4 stat cards with links, unified alerts merging training/supervision/appraisals, activity feed from audit log). Redesigned personal dashboard (scheduled vs contracted hours chart with month selector, training pie with category dropdown, clickable charts navigating to filtered pages, supervision next-due date, upcoming shifts panel). Shared libs: shift-colors, audit-messages, activity-feed, upcoming-shifts, formatRelativeTime. Backend: self-service rota fallback in RotaController. URL param filtering for my-training and my-rota. Clean chart re-render keys across all graphs.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
+        <v>46061</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.7.0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Microsoft Entra ID SSO: MSAL redirect login flow, JIT user provisioning with Employee role, auto-match employees by email, auth_method column (password/microsoft/both), nullable password_hash, Users page auth method controls. Status: core flow working, further testing needed.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/work/changelog.xlsx
+++ b/work/changelog.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,6 +1089,195 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Voice Capture: Added push-to-talk voice input for Day in the Life with real-time transcript preview (Web Speech API)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Bug Fix</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Dashboard Mobile Scrolling: Fixed scrolling issues on mobile devices by removing height constraints</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Bug Fix</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Day in the Life Error Handling: Fixed streaming issues (infinite thinking, send button not activating, SSE error parsing)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>UI Enhancement</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AI Providers UI: Moved AI Providers management into Settings as tab with ListRow component for compact display</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AI Providers Architecture: Implemented ai_providers table with CRUD operations, multi-provider support, real-time model fetching from Gemini/Anthropic/OpenAI APIs</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Day in the Life: AI-powered chat interface for generating PACE-informed care observations. Supports Anthropic (Claude), OpenAI (GPT), Gemini with SSE streaming and custom prompts</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Feature</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Dashboard Enhancements: Enhanced company/personal dashboards with comprehensive data visibility, activity feeds, upcoming shifts, tabbed detail views for all features</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Claude</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
